--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_4_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>216811.2170017353</v>
+        <v>213824.8934262137</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9144617.861409323</v>
+        <v>9144617.861409325</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20441951.88648731</v>
+        <v>20441951.88648736</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3913317.002896302</v>
+        <v>3887913.103569643</v>
       </c>
     </row>
     <row r="11">
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2214,16 +2216,16 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2248,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2299,10 +2301,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2321,16 +2323,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,13 +2399,13 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2412,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2451,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W24" t="n">
-        <v>20.6119760224089</v>
+        <v>60.36402868517419</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2482,13 +2484,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F25" t="n">
-        <v>119.5504549011779</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2524,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2569,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2600,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W26" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="X26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2634,7 +2636,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2679,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.36402868517428</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V27" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>81.39848696832993</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2755,7 +2757,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,13 +2839,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>29.81855126207275</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -2855,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
     </row>
     <row r="30">
@@ -2880,13 +2882,13 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>68.65221300565776</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>28.90016034289241</v>
       </c>
       <c r="U30" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2950,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3026,17 +3028,17 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
@@ -3044,41 +3046,41 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I32" t="n">
+        <v>29.81855126207271</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>89.73190363910518</v>
+      </c>
+      <c r="S32" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>0</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
@@ -3092,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="C33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3123,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>51.85199244433831</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3165,16 +3167,16 @@
         <v>135.7293992974318</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="X33" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3187,7 +3189,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3205,10 +3207,10 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>21.94182076836099</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3229,19 +3231,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3278,61 +3280,61 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="Y35" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3345,73 +3347,73 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>0</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>67.69846245683961</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
-      </c>
-      <c r="R36" t="n">
-        <v>51.85199244433822</v>
-      </c>
-      <c r="S36" t="n">
-        <v>0</v>
-      </c>
-      <c r="T36" t="n">
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="Y36" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U36" t="n">
-        <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>0</v>
-      </c>
-      <c r="W36" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="X36" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3436,16 +3438,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,19 +3477,19 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="V37" t="n">
-        <v>119.5504549011779</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>60.09378870120892</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3506,16 +3508,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="G38" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,13 +3562,13 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3582,16 +3584,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>121.9329941289853</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="F39" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>119.5504549011778</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,13 +3717,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="F41" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="G41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3816,25 +3818,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>135.7293992974318</v>
+        <v>31.28269957069974</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>127.4412149769483</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3879,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>68.65221300565779</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3904,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3913,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3940,28 +3942,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>81.39848696832993</v>
       </c>
       <c r="S43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4022,22 +4024,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>29.81855126207265</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4059,13 +4061,13 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>60.36402868517418</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -4113,7 +4115,7 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
     <row r="46">
@@ -4183,19 +4185,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>145.230457248252</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>279.6025625527094</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>413.9746678571669</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>448.4853435031901</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>448.4853435031901</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>422.159561936012</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>285.0591586052728</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>147.9587552745337</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>71.11249847690068</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>205.4846037813581</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.4846037813581</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>205.4846037813581</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>274.1733865808121</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>408.5454918852696</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>542.9175971897271</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>405.8171938589879</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>268.7167905282488</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>131.6163871975096</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>131.6163871975095</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>10.85835194379454</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>44.46253968843796</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>145.0696190886975</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>263.0631252162992</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>381.4854669658995</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>479.9491134615892</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>542.917597189727</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>405.8171938589878</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>268.7167905282487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C23" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D23" t="n">
-        <v>422.159561936012</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E23" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F23" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G23" t="n">
         <v>10.85835194379454</v>
@@ -5987,52 +5989,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J23" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K23" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L23" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M23" t="n">
-        <v>217.2290015210577</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N23" t="n">
-        <v>217.2290015210577</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O23" t="n">
-        <v>314.1132381987326</v>
+        <v>413.9746678571668</v>
       </c>
       <c r="P23" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R23" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S23" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T23" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U23" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V23" t="n">
-        <v>542.9175971897271</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W23" t="n">
-        <v>542.9175971897271</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X23" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y23" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>522.097419389314</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C24" t="n">
-        <v>384.9970160585748</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D24" t="n">
-        <v>247.8966127278357</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E24" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F24" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G24" t="n">
-        <v>110.7962093970965</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H24" t="n">
         <v>10.85835194379454</v>
@@ -6069,13 +6071,13 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K24" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L24" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M24" t="n">
-        <v>71.11249847690068</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="N24" t="n">
         <v>139.8012812763547</v>
@@ -6084,34 +6086,34 @@
         <v>274.1733865808121</v>
       </c>
       <c r="P24" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q24" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T24" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U24" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="V24" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="W24" t="n">
-        <v>522.097419389314</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X24" t="n">
-        <v>522.097419389314</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y24" t="n">
-        <v>522.097419389314</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="25">
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>268.7167905282488</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C25" t="n">
-        <v>268.7167905282488</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="D25" t="n">
-        <v>268.7167905282488</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E25" t="n">
-        <v>268.7167905282488</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F25" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G25" t="n">
         <v>10.85835194379454</v>
@@ -6148,7 +6150,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K25" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L25" t="n">
         <v>145.0696190886975</v>
@@ -6163,34 +6165,34 @@
         <v>479.9491134615892</v>
       </c>
       <c r="P25" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q25" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R25" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S25" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T25" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U25" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="V25" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W25" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="X25" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y25" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G26" t="n">
         <v>10.85835194379454</v>
@@ -6224,52 +6226,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J26" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="K26" t="n">
+        <v>82.85689621660021</v>
+      </c>
+      <c r="L26" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="M26" t="n">
+        <v>217.2290015210576</v>
+      </c>
+      <c r="N26" t="n">
+        <v>351.601106825515</v>
+      </c>
+      <c r="O26" t="n">
+        <v>448.4853435031899</v>
+      </c>
+      <c r="P26" t="n">
+        <v>448.4853435031899</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="R26" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="S26" t="n">
+        <v>542.917597189727</v>
+      </c>
+      <c r="T26" t="n">
+        <v>405.8171938589878</v>
+      </c>
+      <c r="U26" t="n">
+        <v>268.7167905282487</v>
+      </c>
+      <c r="V26" t="n">
+        <v>131.6163871975095</v>
+      </c>
+      <c r="W26" t="n">
         <v>10.85835194379454</v>
       </c>
-      <c r="K26" t="n">
+      <c r="X26" t="n">
         <v>10.85835194379454</v>
       </c>
-      <c r="L26" t="n">
-        <v>145.230457248252</v>
-      </c>
-      <c r="M26" t="n">
-        <v>279.6025625527094</v>
-      </c>
-      <c r="N26" t="n">
-        <v>413.9746678571669</v>
-      </c>
-      <c r="O26" t="n">
-        <v>413.9746678571669</v>
-      </c>
-      <c r="P26" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>542.9175971897271</v>
-      </c>
-      <c r="R26" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="S26" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="T26" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="U26" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="V26" t="n">
-        <v>452.2793106855804</v>
-      </c>
-      <c r="W26" t="n">
-        <v>315.1789073548413</v>
-      </c>
-      <c r="X26" t="n">
-        <v>178.0785040241021</v>
-      </c>
       <c r="Y26" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="27">
@@ -6279,7 +6281,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C27" t="n">
         <v>10.85835194379454</v>
@@ -6315,40 +6317,40 @@
         <v>274.1733865808121</v>
       </c>
       <c r="N27" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O27" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q27" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R27" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S27" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T27" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="U27" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="V27" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W27" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X27" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y27" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>405.8171938589879</v>
+        <v>504.380255843416</v>
       </c>
       <c r="C28" t="n">
-        <v>268.7167905282488</v>
+        <v>504.380255843416</v>
       </c>
       <c r="D28" t="n">
-        <v>131.6163871975096</v>
+        <v>504.380255843416</v>
       </c>
       <c r="E28" t="n">
-        <v>10.85835194379454</v>
+        <v>504.380255843416</v>
       </c>
       <c r="F28" t="n">
-        <v>10.85835194379454</v>
+        <v>422.159561936012</v>
       </c>
       <c r="G28" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="H28" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I28" t="n">
         <v>10.85835194379454</v>
@@ -6385,49 +6387,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K28" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843787</v>
       </c>
       <c r="L28" t="n">
-        <v>145.0696190886975</v>
+        <v>145.0696190886974</v>
       </c>
       <c r="M28" t="n">
-        <v>263.0631252162992</v>
+        <v>263.0631252162991</v>
       </c>
       <c r="N28" t="n">
         <v>381.4854669658995</v>
       </c>
       <c r="O28" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615891</v>
       </c>
       <c r="P28" t="n">
         <v>542.917597189727</v>
       </c>
       <c r="Q28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="S28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="T28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="U28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="V28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="W28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="X28" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="Y28" t="n">
-        <v>405.8171938589879</v>
+        <v>504.380255843416</v>
       </c>
     </row>
     <row r="29">
@@ -6437,73 +6439,73 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>285.0591586052728</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C29" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D29" t="n">
-        <v>285.0591586052728</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H29" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I29" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J29" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K29" t="n">
-        <v>82.85689621660021</v>
+        <v>145.230457248252</v>
       </c>
       <c r="L29" t="n">
-        <v>82.85689621660021</v>
+        <v>179.7411328942751</v>
       </c>
       <c r="M29" t="n">
-        <v>82.85689621660021</v>
+        <v>314.1132381987325</v>
       </c>
       <c r="N29" t="n">
-        <v>179.7411328942751</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="O29" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="P29" t="n">
-        <v>448.4853435031901</v>
+        <v>448.4853435031899</v>
       </c>
       <c r="Q29" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R29" t="n">
-        <v>452.2793106855804</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S29" t="n">
-        <v>315.1789073548413</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T29" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U29" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V29" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W29" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X29" t="n">
-        <v>285.0591586052728</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="Y29" t="n">
         <v>285.0591586052728</v>
@@ -6516,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="C30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="D30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="E30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="F30" t="n">
-        <v>139.58685192051</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="G30" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H30" t="n">
         <v>10.85835194379454</v>
@@ -6543,49 +6545,49 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K30" t="n">
-        <v>139.8012812763547</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L30" t="n">
+        <v>205.4846037813581</v>
+      </c>
+      <c r="M30" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="M30" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="N30" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O30" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q30" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R30" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S30" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T30" t="n">
-        <v>483.1333282846729</v>
+        <v>513.7255160352902</v>
       </c>
       <c r="U30" t="n">
-        <v>346.0329249539337</v>
+        <v>376.625112704551</v>
       </c>
       <c r="V30" t="n">
-        <v>346.0329249539337</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="W30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="X30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="Y30" t="n">
-        <v>208.9325216231946</v>
+        <v>239.5247093738119</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="C31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D31" t="n">
-        <v>10.85835194379454</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E31" t="n">
         <v>10.85835194379454</v>
@@ -6622,7 +6624,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K31" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L31" t="n">
         <v>145.0696190886975</v>
@@ -6643,28 +6645,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R31" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S31" t="n">
-        <v>285.0591586052728</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T31" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U31" t="n">
-        <v>147.9587552745337</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V31" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W31" t="n">
-        <v>10.85835194379454</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="X31" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="Y31" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282487</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="C32" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="D32" t="n">
-        <v>147.9587552745337</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="E32" t="n">
-        <v>147.9587552745337</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="F32" t="n">
-        <v>147.9587552745337</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="G32" t="n">
-        <v>147.9587552745337</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="H32" t="n">
-        <v>147.9587552745337</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="I32" t="n">
         <v>10.85835194379454</v>
@@ -6704,10 +6706,10 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L32" t="n">
-        <v>10.85835194379454</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="M32" t="n">
-        <v>145.230457248252</v>
+        <v>45.36902758981768</v>
       </c>
       <c r="N32" t="n">
         <v>179.7411328942751</v>
@@ -6722,28 +6724,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R32" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855804</v>
       </c>
       <c r="S32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="T32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="U32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="V32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="W32" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="X32" t="n">
-        <v>422.159561936012</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="Y32" t="n">
-        <v>285.0591586052728</v>
+        <v>315.1789073548413</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G33" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H33" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I33" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J33" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K33" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="L33" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="M33" t="n">
-        <v>145.230457248252</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="N33" t="n">
-        <v>145.230457248252</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="O33" t="n">
-        <v>274.1733865808121</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P33" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q33" t="n">
         <v>542.9175971897271</v>
@@ -6813,7 +6815,7 @@
         <v>405.8171938589879</v>
       </c>
       <c r="V33" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W33" t="n">
         <v>268.7167905282488</v>
@@ -6822,7 +6824,7 @@
         <v>268.7167905282488</v>
       </c>
       <c r="Y33" t="n">
-        <v>268.7167905282488</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.85835194379454</v>
+        <v>230.1794491819378</v>
       </c>
       <c r="C34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="D34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="E34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="F34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="G34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="H34" t="n">
-        <v>10.85835194379454</v>
+        <v>93.0790458511986</v>
       </c>
       <c r="I34" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962184</v>
       </c>
       <c r="J34" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K34" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L34" t="n">
         <v>145.0696190886975</v>
@@ -6868,40 +6870,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N34" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O34" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P34" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q34" t="n">
-        <v>542.917597189727</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="R34" t="n">
-        <v>542.917597189727</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="S34" t="n">
-        <v>405.8171938589878</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="T34" t="n">
-        <v>405.8171938589878</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="U34" t="n">
-        <v>285.0591586052728</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="V34" t="n">
-        <v>285.0591586052728</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="W34" t="n">
-        <v>285.0591586052728</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="X34" t="n">
-        <v>285.0591586052728</v>
+        <v>504.3802558434161</v>
       </c>
       <c r="Y34" t="n">
-        <v>147.9587552745337</v>
+        <v>367.2798525126769</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6916,19 @@
         <v>268.7167905282488</v>
       </c>
       <c r="C35" t="n">
-        <v>268.7167905282488</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="D35" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E35" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F35" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G35" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H35" t="n">
         <v>10.85835194379454</v>
@@ -6935,22 +6937,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J35" t="n">
-        <v>45.36902758981768</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K35" t="n">
-        <v>45.36902758981768</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L35" t="n">
-        <v>45.36902758981768</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M35" t="n">
-        <v>45.36902758981768</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="N35" t="n">
-        <v>179.7411328942751</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O35" t="n">
-        <v>314.1132381987326</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P35" t="n">
         <v>448.4853435031901</v>
@@ -6965,19 +6967,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="T35" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="U35" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="V35" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="W35" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="X35" t="n">
         <v>405.8171938589879</v>
-      </c>
-      <c r="U35" t="n">
-        <v>405.8171938589879</v>
-      </c>
-      <c r="V35" t="n">
-        <v>268.7167905282488</v>
-      </c>
-      <c r="W35" t="n">
-        <v>268.7167905282488</v>
-      </c>
-      <c r="X35" t="n">
-        <v>268.7167905282488</v>
       </c>
       <c r="Y35" t="n">
         <v>268.7167905282488</v>
@@ -6990,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>216.3410405844727</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C36" t="n">
-        <v>216.3410405844727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D36" t="n">
-        <v>216.3410405844727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E36" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F36" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G36" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H36" t="n">
-        <v>79.24063725373355</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I36" t="n">
         <v>10.85835194379454</v>
@@ -7017,49 +7019,49 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K36" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L36" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M36" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="N36" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O36" t="n">
         <v>408.5454918852696</v>
       </c>
       <c r="P36" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="Q36" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R36" t="n">
-        <v>490.5418472459511</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S36" t="n">
-        <v>490.5418472459511</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T36" t="n">
-        <v>353.4414439152119</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U36" t="n">
-        <v>353.4414439152119</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="V36" t="n">
-        <v>353.4414439152119</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="W36" t="n">
-        <v>216.3410405844727</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X36" t="n">
-        <v>216.3410405844727</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y36" t="n">
-        <v>216.3410405844727</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="37">
@@ -7069,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="C37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="E37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="F37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="G37" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H37" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="I37" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962184</v>
       </c>
       <c r="J37" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K37" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L37" t="n">
         <v>145.0696190886975</v>
@@ -7105,40 +7107,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N37" t="n">
-        <v>381.4854669658995</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O37" t="n">
-        <v>479.9491134615892</v>
+        <v>479.9491134615893</v>
       </c>
       <c r="P37" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q37" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="R37" t="n">
-        <v>542.917597189727</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S37" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="T37" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="U37" t="n">
         <v>405.8171938589879</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>268.7167905282488</v>
       </c>
-      <c r="V37" t="n">
-        <v>147.9587552745337</v>
-      </c>
       <c r="W37" t="n">
-        <v>147.9587552745337</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="X37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
       <c r="Y37" t="n">
-        <v>147.9587552745337</v>
+        <v>208.015993860361</v>
       </c>
     </row>
     <row r="38">
@@ -7148,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>542.9175971897271</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="C38" t="n">
-        <v>542.9175971897271</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="D38" t="n">
-        <v>422.159561936012</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="E38" t="n">
-        <v>285.0591586052728</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="F38" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G38" t="n">
         <v>10.85835194379454</v>
@@ -7172,52 +7174,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J38" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K38" t="n">
-        <v>179.7411328942751</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L38" t="n">
-        <v>179.7411328942751</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="M38" t="n">
-        <v>179.7411328942751</v>
+        <v>145.230457248252</v>
       </c>
       <c r="N38" t="n">
-        <v>314.1132381987326</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O38" t="n">
-        <v>448.4853435031901</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="P38" t="n">
-        <v>448.4853435031901</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q38" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="U38" t="n">
-        <v>542.9175971897271</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="V38" t="n">
-        <v>542.9175971897271</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="W38" t="n">
-        <v>542.9175971897271</v>
+        <v>178.078504024102</v>
       </c>
       <c r="X38" t="n">
-        <v>542.9175971897271</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="Y38" t="n">
-        <v>542.9175971897271</v>
+        <v>40.97810069336288</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7229,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C39" t="n">
-        <v>419.7529566553985</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="D39" t="n">
-        <v>282.6525533246594</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="E39" t="n">
-        <v>145.5521499939202</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F39" t="n">
         <v>10.85835194379454</v>
@@ -7251,52 +7253,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J39" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K39" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L39" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M39" t="n">
-        <v>139.8012812763547</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N39" t="n">
         <v>274.1733865808121</v>
       </c>
       <c r="O39" t="n">
-        <v>408.5454918852696</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="P39" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R39" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S39" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="T39" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="U39" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V39" t="n">
-        <v>542.9175971897271</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W39" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X39" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y39" t="n">
-        <v>542.9175971897271</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="C40" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D40" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E40" t="n">
-        <v>405.8171938589878</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F40" t="n">
-        <v>268.7167905282487</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G40" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H40" t="n">
         <v>10.85835194379454</v>
@@ -7363,19 +7365,19 @@
         <v>542.917597189727</v>
       </c>
       <c r="U40" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="V40" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="W40" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="X40" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="Y40" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C41" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="D41" t="n">
-        <v>422.159561936012</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="E41" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="F41" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G41" t="n">
         <v>10.85835194379454</v>
@@ -7412,49 +7414,49 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K41" t="n">
-        <v>217.2290015210577</v>
+        <v>217.2290015210576</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2290015210577</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M41" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="N41" t="n">
-        <v>408.5454918852696</v>
+        <v>542.917597189727</v>
       </c>
       <c r="O41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V41" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W41" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X41" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y41" t="n">
-        <v>422.159561936012</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>276.6872552512491</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C42" t="n">
-        <v>139.58685192051</v>
+        <v>511.3189107546767</v>
       </c>
       <c r="D42" t="n">
-        <v>139.58685192051</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="E42" t="n">
-        <v>139.58685192051</v>
+        <v>374.2185074239376</v>
       </c>
       <c r="F42" t="n">
-        <v>139.58685192051</v>
+        <v>239.5247093738119</v>
       </c>
       <c r="G42" t="n">
-        <v>10.85835194379454</v>
+        <v>110.7962093970965</v>
       </c>
       <c r="H42" t="n">
         <v>10.85835194379454</v>
@@ -7497,43 +7499,43 @@
         <v>10.85835194379454</v>
       </c>
       <c r="M42" t="n">
+        <v>10.85835194379454</v>
+      </c>
+      <c r="N42" t="n">
         <v>139.8012812763547</v>
       </c>
-      <c r="N42" t="n">
+      <c r="O42" t="n">
         <v>274.1733865808121</v>
       </c>
-      <c r="O42" t="n">
-        <v>408.5454918852696</v>
-      </c>
       <c r="P42" t="n">
-        <v>408.5454918852696</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q42" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R42" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S42" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T42" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U42" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V42" t="n">
-        <v>483.1333282846729</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W42" t="n">
-        <v>413.7876585819882</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X42" t="n">
-        <v>413.7876585819882</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y42" t="n">
-        <v>413.7876585819882</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="C43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="D43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="E43" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="F43" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="G43" t="n">
-        <v>10.85835194379454</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="H43" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I43" t="n">
         <v>10.85835194379454</v>
@@ -7570,7 +7572,7 @@
         <v>10.85835194379454</v>
       </c>
       <c r="K43" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L43" t="n">
         <v>145.0696190886975</v>
@@ -7579,40 +7581,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N43" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O43" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P43" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q43" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R43" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="S43" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T43" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U43" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V43" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W43" t="n">
-        <v>268.7167905282488</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="X43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="Y43" t="n">
-        <v>131.6163871975096</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>452.2793106855803</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>315.1789073548412</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.078504024102</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>40.97810069336288</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>208.9325216231945</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>71.83211829245533</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>408.5454918852695</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>483.1333282846728</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>346.0329249539336</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>208.9325216231945</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>44.46253968843795</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>145.0696190886975</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>263.0631252162992</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
   </sheetData>
@@ -9404,22 +9406,22 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L20" t="n">
-        <v>327.2896114605464</v>
+        <v>191.5602121631146</v>
       </c>
       <c r="M20" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N20" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O20" t="n">
-        <v>221.8140651094368</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P20" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q20" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R20" t="n">
         <v>85.43134583487716</v>
@@ -9477,10 +9479,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J21" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
         <v>112.5754335711478</v>
@@ -9489,13 +9491,13 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N21" t="n">
-        <v>176.0977499560457</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O21" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P21" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q21" t="n">
         <v>113.7351914448925</v>
@@ -9559,22 +9561,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K22" t="n">
-        <v>138.7668962480483</v>
+        <v>104.82327226356</v>
       </c>
       <c r="L22" t="n">
-        <v>211.2171120040207</v>
+        <v>109.5937994785061</v>
       </c>
       <c r="M22" t="n">
-        <v>232.0625591822793</v>
+        <v>112.8771994574291</v>
       </c>
       <c r="N22" t="n">
-        <v>223.3630318978003</v>
+        <v>103.744504878002</v>
       </c>
       <c r="O22" t="n">
-        <v>211.9541662756472</v>
+        <v>112.4959374921223</v>
       </c>
       <c r="P22" t="n">
-        <v>175.5085323082534</v>
+        <v>111.9040032899324</v>
       </c>
       <c r="Q22" t="n">
         <v>84.9458458910769</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K23" t="n">
         <v>314.5524032714785</v>
@@ -9647,13 +9649,13 @@
         <v>187.1563144971591</v>
       </c>
       <c r="N23" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O23" t="n">
-        <v>284.8176621111052</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P23" t="n">
-        <v>323.6062083485883</v>
+        <v>222.7360773804728</v>
       </c>
       <c r="Q23" t="n">
         <v>276.0094878578761</v>
@@ -9717,7 +9719,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>111.9961691666667</v>
+        <v>181.3787780550041</v>
       </c>
       <c r="L24" t="n">
         <v>112.5754335711478</v>
@@ -9726,16 +9728,16 @@
         <v>115.4839025616399</v>
       </c>
       <c r="N24" t="n">
-        <v>176.0977499560457</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O24" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P24" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9811,7 +9813,7 @@
         <v>211.9541662756472</v>
       </c>
       <c r="P25" t="n">
-        <v>175.5085323082535</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q25" t="n">
         <v>84.9458458910769</v>
@@ -9872,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K26" t="n">
         <v>178.8230039740467</v>
       </c>
       <c r="L26" t="n">
-        <v>327.2896114605464</v>
+        <v>327.2896114605463</v>
       </c>
       <c r="M26" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N26" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O26" t="n">
-        <v>186.9547967801205</v>
+        <v>284.8176621111052</v>
       </c>
       <c r="P26" t="n">
-        <v>318.1221922153587</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
         <v>85.43134583487716</v>
@@ -9954,22 +9956,22 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>242.2415523308688</v>
+        <v>242.2415523308689</v>
       </c>
       <c r="L27" t="n">
-        <v>248.3048328685796</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M27" t="n">
         <v>115.4839025616399</v>
       </c>
       <c r="N27" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O27" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P27" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10033,7 +10035,7 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K28" t="n">
-        <v>138.7668962480483</v>
+        <v>138.7668962480482</v>
       </c>
       <c r="L28" t="n">
         <v>211.2171120040207</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K29" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L29" t="n">
-        <v>191.5602121631146</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M29" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N29" t="n">
-        <v>284.2609795032149</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O29" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P29" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10191,22 +10193,22 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
-        <v>181.378778055004</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L30" t="n">
-        <v>248.3048328685796</v>
+        <v>112.5754335711478</v>
       </c>
       <c r="M30" t="n">
-        <v>251.2133018590717</v>
+        <v>184.8665114499773</v>
       </c>
       <c r="N30" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O30" t="n">
-        <v>115.8594486111111</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P30" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q30" t="n">
         <v>113.7351914448925</v>
@@ -10352,13 +10354,13 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L32" t="n">
-        <v>191.5602121631146</v>
+        <v>226.4194804924309</v>
       </c>
       <c r="M32" t="n">
-        <v>322.8857137945909</v>
+        <v>187.1563144971591</v>
       </c>
       <c r="N32" t="n">
-        <v>221.2573825015464</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O32" t="n">
         <v>322.6841960775522</v>
@@ -10425,28 +10427,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L33" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M33" t="n">
         <v>251.2133018590717</v>
       </c>
       <c r="N33" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O33" t="n">
-        <v>246.1048317753133</v>
+        <v>185.2420574994484</v>
       </c>
       <c r="P33" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10583,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>181.9590657572489</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L35" t="n">
-        <v>191.5602121631146</v>
+        <v>327.2896114605464</v>
       </c>
       <c r="M35" t="n">
-        <v>187.1563144971591</v>
+        <v>285.0191798281439</v>
       </c>
       <c r="N35" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O35" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P35" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q35" t="n">
         <v>276.0094878578761</v>
@@ -10665,25 +10667,25 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K36" t="n">
-        <v>111.9961691666667</v>
+        <v>242.2415523308688</v>
       </c>
       <c r="L36" t="n">
         <v>248.3048328685796</v>
       </c>
       <c r="M36" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N36" t="n">
-        <v>106.7151410677083</v>
+        <v>242.4445403651401</v>
       </c>
       <c r="O36" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P36" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q36" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423243</v>
       </c>
       <c r="R36" t="n">
         <v>59.17817075471706</v>
@@ -10820,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K38" t="n">
-        <v>276.6858693050315</v>
+        <v>178.8230039740467</v>
       </c>
       <c r="L38" t="n">
         <v>191.5602121631146</v>
       </c>
       <c r="M38" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N38" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O38" t="n">
-        <v>322.6841960775522</v>
+        <v>317.2001799443226</v>
       </c>
       <c r="P38" t="n">
-        <v>187.8768090511565</v>
+        <v>323.6062083485882</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R38" t="n">
         <v>85.43134583487716</v>
@@ -10899,28 +10901,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L39" t="n">
-        <v>112.5754335711478</v>
+        <v>181.9580424594852</v>
       </c>
       <c r="M39" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N39" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O39" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P39" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q39" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R39" t="n">
         <v>59.17817075471706</v>
@@ -11063,16 +11065,16 @@
         <v>314.5524032714785</v>
       </c>
       <c r="L41" t="n">
-        <v>191.5602121631146</v>
+        <v>249.0797930315535</v>
       </c>
       <c r="M41" t="n">
-        <v>244.6758953655979</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N41" t="n">
-        <v>322.1275134696619</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O41" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P41" t="n">
         <v>187.8768090511565</v>
@@ -11145,19 +11147,19 @@
         <v>112.5754335711478</v>
       </c>
       <c r="M42" t="n">
-        <v>245.7292857258421</v>
+        <v>115.4839025616399</v>
       </c>
       <c r="N42" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O42" t="n">
-        <v>251.5888479085429</v>
+        <v>251.5888479085428</v>
       </c>
       <c r="P42" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q42" t="n">
-        <v>249.4645907423243</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11227,7 +11229,7 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N43" t="n">
-        <v>223.3630318978004</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O43" t="n">
         <v>211.9541662756472</v>
@@ -11300,16 +11302,16 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L44" t="n">
-        <v>191.5602121631146</v>
+        <v>321.8055953273168</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N44" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696618</v>
       </c>
       <c r="O44" t="n">
-        <v>186.9547967801205</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P44" t="n">
         <v>187.8768090511565</v>
@@ -11379,10 +11381,10 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L45" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685795</v>
       </c>
       <c r="M45" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590716</v>
       </c>
       <c r="N45" t="n">
         <v>106.7151410677083</v>
@@ -11391,10 +11393,10 @@
         <v>115.8594486111111</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>239.0995891883455</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>249.4645907423242</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -11455,22 +11457,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K46" t="n">
-        <v>104.82327226356</v>
+        <v>138.7668962480483</v>
       </c>
       <c r="L46" t="n">
-        <v>109.5937994785061</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M46" t="n">
-        <v>112.8771994574291</v>
+        <v>232.0625591822793</v>
       </c>
       <c r="N46" t="n">
-        <v>103.744504878002</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O46" t="n">
-        <v>112.4959374921223</v>
+        <v>211.9541662756472</v>
       </c>
       <c r="P46" t="n">
-        <v>111.9040032899324</v>
+        <v>175.5085323082534</v>
       </c>
       <c r="Q46" t="n">
         <v>84.9458458910769</v>
@@ -24020,16 +24022,16 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>102.564901905121</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>116.6070836257141</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W20" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
         <v>378.2098390737216</v>
@@ -24102,16 +24104,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U21" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>76.38736333980543</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
         <v>190.5961130869169</v>
@@ -24136,10 +24138,10 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F22" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>47.68009624465068</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24187,10 +24189,10 @@
         <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
-        <v>147.5654381703431</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X22" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
         <v>219.8148072196457</v>
@@ -24209,16 +24211,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
-        <v>249.5452702238707</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
@@ -24254,7 +24256,7 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
-        <v>185.3566856159496</v>
+        <v>65.80623071477176</v>
       </c>
       <c r="T23" t="n">
         <v>222.1153568062989</v>
@@ -24263,13 +24265,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V23" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W23" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X23" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y23" t="n">
         <v>389.6064368699203</v>
@@ -24285,13 +24287,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C24" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D24" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F24" t="n">
         <v>133.3468600696244</v>
@@ -24300,7 +24302,7 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I24" t="n">
         <v>67.69846245683961</v>
@@ -24330,7 +24332,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>151.2714921173871</v>
@@ -24339,16 +24341,16 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U24" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W24" t="n">
-        <v>218.2907340566142</v>
+        <v>178.5386813938489</v>
       </c>
       <c r="X24" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355161</v>
       </c>
       <c r="Y24" t="n">
         <v>190.5961130869169</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>45.99041570010425</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C25" t="n">
         <v>167.9198098429365</v>
@@ -24370,13 +24372,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E25" t="n">
-        <v>150.4889240962943</v>
+        <v>14.7595247988626</v>
       </c>
       <c r="F25" t="n">
-        <v>31.40539352330272</v>
+        <v>31.40539352330282</v>
       </c>
       <c r="G25" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H25" t="n">
         <v>157.7789187685189</v>
@@ -24412,10 +24414,10 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291757</v>
       </c>
       <c r="T25" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504621</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -24430,7 +24432,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="26">
@@ -24455,7 +24457,7 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>382.1243954182812</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
         <v>329.4930616586638</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V26" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W26" t="n">
-        <v>223.1801815435432</v>
+        <v>239.3591259397971</v>
       </c>
       <c r="X26" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="27">
@@ -24522,7 +24524,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C27" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D27" t="n">
         <v>137.45025063969</v>
@@ -24567,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>90.90746343221284</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T27" t="n">
-        <v>51.06885349824287</v>
+        <v>51.0688534982429</v>
       </c>
       <c r="U27" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V27" t="n">
-        <v>90.38226702871759</v>
+        <v>106.5612114249715</v>
       </c>
       <c r="W27" t="n">
         <v>238.9027100790231</v>
@@ -24601,25 +24603,25 @@
         <v>181.719814997536</v>
       </c>
       <c r="C28" t="n">
-        <v>32.19041054550473</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>15.81177494308312</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>30.93846919511643</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
-        <v>150.9558484244806</v>
+        <v>69.55736145615072</v>
       </c>
       <c r="G28" t="n">
-        <v>167.2305511458285</v>
+        <v>31.50115184839674</v>
       </c>
       <c r="H28" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J28" t="n">
         <v>59.456666199969</v>
@@ -24643,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>148.0265635717656</v>
@@ -24667,7 +24669,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y28" t="n">
-        <v>84.0854079222139</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="29">
@@ -24677,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>254.3737048254072</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E29" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
         <v>410.0096787829314</v>
@@ -24698,7 +24700,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>35.35962750586017</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,13 +24727,13 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>192.2968055442262</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
         <v>252.3364829231459</v>
@@ -24743,10 +24745,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>270.0559819687425</v>
       </c>
     </row>
     <row r="30">
@@ -24768,13 +24770,13 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F30" t="n">
-        <v>64.69464706396664</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>67.69846245683961</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>157.8980924527822</v>
       </c>
       <c r="U30" t="n">
-        <v>80.58044518024116</v>
+        <v>80.58044518024118</v>
       </c>
       <c r="V30" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W30" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -24838,13 +24840,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550476</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
-        <v>150.4889240962943</v>
+        <v>30.93846919511651</v>
       </c>
       <c r="F31" t="n">
         <v>150.9558484244806</v>
@@ -24883,25 +24885,25 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R31" t="n">
-        <v>28.47610867058775</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S31" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T31" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U31" t="n">
         <v>284.3183371157911</v>
       </c>
       <c r="V31" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W31" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X31" t="n">
-        <v>228.939939463578</v>
+        <v>93.21054016614625</v>
       </c>
       <c r="Y31" t="n">
         <v>219.8148072196457</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
         <v>378.1144210805207</v>
@@ -24923,7 +24925,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>255.1084633975224</v>
       </c>
       <c r="F32" t="n">
         <v>410.0096787829314</v>
@@ -24932,10 +24934,10 @@
         <v>411.9429466803539</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I32" t="n">
-        <v>35.35962750586017</v>
+        <v>141.2704755412192</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,10 +24964,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
@@ -24980,10 +24982,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
-        <v>258.6593841725436</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y32" t="n">
-        <v>253.8770375724886</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="33">
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>157.8252483534483</v>
+        <v>38.27479345227036</v>
       </c>
       <c r="C33" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
         <v>137.45025063969</v>
@@ -25011,10 +25013,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H33" t="n">
-        <v>47.08648643443063</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25053,16 +25055,16 @@
         <v>80.58044518024116</v>
       </c>
       <c r="V33" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W33" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X33" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y33" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="34">
@@ -25075,7 +25077,7 @@
         <v>45.99041570010425</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>32.19041054550473</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25093,10 +25095,10 @@
         <v>157.7789187685189</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7610139533483</v>
+        <v>120.8191931849873</v>
       </c>
       <c r="J34" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25119,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>148.0265635717656</v>
       </c>
       <c r="S34" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>164.7678822146133</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
@@ -25154,10 +25156,10 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C35" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D35" t="n">
-        <v>369.0957251250487</v>
+        <v>249.5452702238707</v>
       </c>
       <c r="E35" t="n">
         <v>390.8378626949542</v>
@@ -25166,10 +25168,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>292.3924917791759</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H35" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25205,22 +25207,22 @@
         <v>185.3566856159496</v>
       </c>
       <c r="T35" t="n">
-        <v>86.38595750886716</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U35" t="n">
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X35" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y35" t="n">
-        <v>389.6064368699203</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="36">
@@ -25233,13 +25235,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>160.0866360314548</v>
+        <v>24.35723673402308</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E36" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F36" t="n">
         <v>133.3468600696244</v>
@@ -25251,7 +25253,7 @@
         <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>7.334433771665445</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W36" t="n">
-        <v>103.1733107815913</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X36" t="n">
-        <v>195.9378182409833</v>
+        <v>76.38736333980542</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="37">
@@ -25324,16 +25326,16 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G37" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H37" t="n">
         <v>157.7789187685189</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916485</v>
       </c>
       <c r="J37" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25363,19 +25365,19 @@
         <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U37" t="n">
         <v>148.5889378183593</v>
       </c>
       <c r="V37" t="n">
-        <v>138.5774964959837</v>
+        <v>122.3985520997298</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>168.8461507623691</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -25394,16 +25396,16 @@
         <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>249.5452702238707</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>274.2802794854996</v>
+        <v>380.1911275208587</v>
       </c>
       <c r="G38" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>185.3566856159496</v>
@@ -25448,13 +25450,13 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -25470,16 +25472,16 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>38.15364190246959</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
-        <v>1.720851342258271</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E39" t="n">
-        <v>9.828330546265704</v>
+        <v>26.00727494251964</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
         <v>127.4412149769483</v>
@@ -25518,7 +25520,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>151.2714921173871</v>
+        <v>15.54209281995537</v>
       </c>
       <c r="T39" t="n">
         <v>186.7982527956746</v>
@@ -25527,10 +25529,10 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V39" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W39" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -25549,22 +25551,22 @@
         <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
-        <v>167.9198098429365</v>
+        <v>48.36935494175867</v>
       </c>
       <c r="D40" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F40" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
-        <v>47.68009624465067</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25603,13 +25605,13 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U40" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V40" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W40" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X40" t="n">
         <v>228.939939463578</v>
@@ -25628,19 +25630,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>242.3850217830889</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>233.3663258276169</v>
       </c>
       <c r="E41" t="n">
-        <v>255.1084633975224</v>
+        <v>255.1084633975225</v>
       </c>
       <c r="F41" t="n">
-        <v>274.2802794854996</v>
+        <v>290.4592238817535</v>
       </c>
       <c r="G41" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25688,7 +25690,7 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>239.359125939797</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
         <v>378.2098390737216</v>
@@ -25704,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C42" t="n">
-        <v>24.35723673402308</v>
+        <v>128.8039364607551</v>
       </c>
       <c r="D42" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E42" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>67.69846245683961</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
         <v>151.2714921173871</v>
@@ -25767,7 +25769,7 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
-        <v>170.2504970733653</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -25792,7 +25794,7 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>30.93846919511643</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
@@ -25801,10 +25803,10 @@
         <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108717</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7610139533483</v>
+        <v>7.031614655916513</v>
       </c>
       <c r="J43" t="n">
         <v>59.456666199969</v>
@@ -25828,28 +25830,28 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>66.62807660343563</v>
       </c>
       <c r="S43" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T43" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V43" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X43" t="n">
-        <v>93.21054016614622</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
         <v>219.8148072196457</v>
@@ -25910,22 +25912,22 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T44" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886719</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257142</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W44" t="n">
-        <v>358.909580840975</v>
+        <v>329.0910295789023</v>
       </c>
       <c r="X44" t="n">
         <v>378.2098390737216</v>
@@ -25947,13 +25949,13 @@
         <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>137.45025063969</v>
+        <v>1.7208513422583</v>
       </c>
       <c r="E45" t="n">
         <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
-        <v>133.3468600696244</v>
+        <v>72.98283138445021</v>
       </c>
       <c r="G45" t="n">
         <v>127.4412149769483</v>
@@ -25989,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>151.2714921173871</v>
@@ -26001,7 +26003,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871762</v>
       </c>
       <c r="W45" t="n">
         <v>238.9027100790231</v>
@@ -26010,7 +26012,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>54.8667137894852</v>
       </c>
     </row>
     <row r="46">
@@ -26071,19 +26073,19 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>92.02221006917149</v>
       </c>
       <c r="T46" t="n">
         <v>230.8471636524779</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>148.5889378183594</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>122.3985520997299</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>147.5654381703431</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>400666.5417364875</v>
+        <v>281309.4386566844</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>400666.5417364878</v>
+        <v>400666.5417364876</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>400666.5417364876</v>
+        <v>400666.5417364878</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>400666.5417364876</v>
+        <v>400666.5417364874</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>400666.5417364875</v>
+        <v>400666.5417364876</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>400666.5417364876</v>
+        <v>400666.5417364875</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>281309.4386566844</v>
+        <v>400666.5417364875</v>
       </c>
     </row>
   </sheetData>
@@ -26323,37 +26325,37 @@
         <v>54446.98812710022</v>
       </c>
       <c r="F2" t="n">
-        <v>54446.98812710021</v>
+        <v>54446.98812710022</v>
       </c>
       <c r="G2" t="n">
-        <v>54446.98812710021</v>
+        <v>54446.98812710022</v>
       </c>
       <c r="H2" t="n">
+        <v>54446.98812710022</v>
+      </c>
+      <c r="I2" t="n">
+        <v>77518.14111945433</v>
+      </c>
+      <c r="J2" t="n">
+        <v>77518.1411194543</v>
+      </c>
+      <c r="K2" t="n">
         <v>77518.14111945432</v>
       </c>
-      <c r="I2" t="n">
+      <c r="L2" t="n">
+        <v>77518.14111945433</v>
+      </c>
+      <c r="M2" t="n">
+        <v>77518.14111945433</v>
+      </c>
+      <c r="N2" t="n">
+        <v>77518.1411194543</v>
+      </c>
+      <c r="O2" t="n">
         <v>77518.14111945432</v>
       </c>
-      <c r="J2" t="n">
+      <c r="P2" t="n">
         <v>77518.14111945432</v>
-      </c>
-      <c r="K2" t="n">
-        <v>77518.1411194543</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77518.14111945432</v>
-      </c>
-      <c r="M2" t="n">
-        <v>77518.14111945432</v>
-      </c>
-      <c r="N2" t="n">
-        <v>77518.14111945432</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77518.14111945433</v>
-      </c>
-      <c r="P2" t="n">
-        <v>54446.98812710022</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26383,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>36621.01349504077</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>36093.29759057234</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26433,7 +26435,7 @@
         <v>18148.99604236674</v>
       </c>
       <c r="H4" t="n">
-        <v>26113.22428004297</v>
+        <v>18148.99604236674</v>
       </c>
       <c r="I4" t="n">
         <v>26113.22428004297</v>
@@ -26448,16 +26450,16 @@
         <v>26113.22428004297</v>
       </c>
       <c r="M4" t="n">
-        <v>26113.22428004298</v>
+        <v>26113.22428004297</v>
       </c>
       <c r="N4" t="n">
         <v>26113.22428004297</v>
       </c>
       <c r="O4" t="n">
-        <v>26113.22428004298</v>
+        <v>26113.22428004297</v>
       </c>
       <c r="P4" t="n">
-        <v>18148.99604236674</v>
+        <v>26113.22428004297</v>
       </c>
     </row>
     <row r="5">
@@ -26485,16 +26487,16 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>8252.347477283851</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="J5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="K5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="L5" t="n">
         <v>8252.347477283851</v>
@@ -26503,13 +26505,13 @@
         <v>8252.347477283851</v>
       </c>
       <c r="N5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="O5" t="n">
-        <v>8252.347477283851</v>
+        <v>8252.347477283849</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>8252.347477283849</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733481</v>
       </c>
       <c r="C6" t="n">
-        <v>2670.392084733474</v>
+        <v>2670.392084733481</v>
       </c>
       <c r="D6" t="n">
         <v>2670.392084733467</v>
       </c>
       <c r="E6" t="n">
-        <v>36297.99208473349</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="F6" t="n">
         <v>36297.99208473347</v>
       </c>
       <c r="G6" t="n">
-        <v>36297.99208473347</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="H6" t="n">
-        <v>6531.555867086719</v>
+        <v>36297.99208473348</v>
       </c>
       <c r="I6" t="n">
-        <v>43152.56936212749</v>
+        <v>7059.27177155517</v>
       </c>
       <c r="J6" t="n">
-        <v>43152.56936212749</v>
+        <v>43152.56936212748</v>
       </c>
       <c r="K6" t="n">
+        <v>43152.5693621275</v>
+      </c>
+      <c r="L6" t="n">
+        <v>43152.56936212751</v>
+      </c>
+      <c r="M6" t="n">
+        <v>43152.56936212751</v>
+      </c>
+      <c r="N6" t="n">
         <v>43152.56936212748</v>
-      </c>
-      <c r="L6" t="n">
-        <v>43152.56936212749</v>
-      </c>
-      <c r="M6" t="n">
-        <v>43152.56936212748</v>
-      </c>
-      <c r="N6" t="n">
-        <v>43152.56936212749</v>
       </c>
       <c r="O6" t="n">
         <v>43152.5693621275</v>
       </c>
       <c r="P6" t="n">
-        <v>36297.99208473348</v>
+        <v>43152.5693621275</v>
       </c>
     </row>
   </sheetData>
@@ -26805,16 +26807,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="K4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L4" t="n">
         <v>135.7293992974318</v>
@@ -26823,13 +26825,13 @@
         <v>135.7293992974318</v>
       </c>
       <c r="N4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O4" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
     </row>
   </sheetData>
@@ -27027,10 +27029,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -36124,22 +36126,22 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>34.85926832931634</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36209,13 +36211,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>33.9436239844883</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>101.6233125255146</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>119.1853597248502</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>119.6185270197983</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45822878352493</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>63.604529018321</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36357,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,13 +36369,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O23" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7293992974318</v>
+        <v>34.85926832931628</v>
       </c>
       <c r="Q23" t="n">
         <v>95.38611483488586</v>
@@ -36437,7 +36439,7 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>69.38260888833739</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -36446,16 +36448,16 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>69.38260888833736</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36531,7 +36533,7 @@
         <v>99.45822878352493</v>
       </c>
       <c r="P25" t="n">
-        <v>63.60452901832108</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36592,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M26" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>97.86286533098475</v>
       </c>
       <c r="P26" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36679,19 @@
         <v>130.2453831642022</v>
       </c>
       <c r="L27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O27" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P27" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36753,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>33.9436239844883</v>
+        <v>33.94362398448821</v>
       </c>
       <c r="L28" t="n">
         <v>101.6233125255146</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>34.85926832931631</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N29" t="n">
-        <v>97.86286533098477</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>95.38611483488586</v>
@@ -36911,22 +36913,22 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K30" t="n">
-        <v>69.38260888833736</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>135.7293992974318</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P30" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37072,13 +37074,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>34.85926832931629</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N32" t="n">
-        <v>34.85926832931631</v>
       </c>
       <c r="O32" t="n">
         <v>135.7293992974318</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M33" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O33" t="n">
-        <v>130.2453831642022</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="P33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>34.85926832931629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>97.8628653309848</v>
       </c>
       <c r="N35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>95.38611483488586</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L36" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M36" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O36" t="n">
+        <v>0</v>
+      </c>
+      <c r="P36" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q36" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="P36" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>97.86286533098477</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N38" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O38" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q38" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>69.3826088883374</v>
       </c>
       <c r="M39" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>57.51958086843889</v>
       </c>
       <c r="M41" t="n">
-        <v>57.51958086843886</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N41" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O41" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37865,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>130.2453831642022</v>
       </c>
-      <c r="N42" t="n">
-        <v>135.7293992974318</v>
-      </c>
       <c r="O42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.7293992974318</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37949,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N43" t="n">
-        <v>119.6185270197984</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O43" t="n">
         <v>99.45822878352493</v>
@@ -38020,16 +38022,16 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -38099,10 +38101,10 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,10 +38113,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>135.7293992974317</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>33.9436239844883</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>119.1853597248502</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>99.45822878352493</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>63.604529018321</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
